--- a/Data/Tables/ItemDefine.xlsx
+++ b/Data/Tables/ItemDefine.xlsx
@@ -1548,7 +1548,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
